--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35697.98528914714</v>
+        <v>-15705.86997405186</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717502</v>
+        <v>16628357.41382744</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484432</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8630935.827187855</v>
+        <v>8675912.2363433</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>325.1674523455598</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>25.4285603422883</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>191.7099199047152</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.9248217542669</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>355.6611154650815</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.1478756737229</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>46.16917954999361</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>92.24160738587841</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>204.2636450022523</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>100.4039470289792</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1351,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,13 +1373,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>221.3916946377811</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>329.6210812998079</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>67.68074767021372</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800593</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.45240452679997</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888123</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.94061297377386</v>
+        <v>3.139541480023263</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>126.7541180064927</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>60.94899222869633</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.24876144511913</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2618,7 +2618,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864851</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>140.5689102989813</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3332,7 +3332,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633422</v>
       </c>
     </row>
     <row r="36">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225728</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384835</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517126</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696407</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642617</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141166</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145781</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7501939217679</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600321</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701949</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828554</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.04601967194251</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157541</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978505</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279962</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783465</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384835</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517126</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696407</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642617</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141166</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145781</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217679</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600321</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701949</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562861</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>11.90389256229031</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.050084024954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149622</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.75057454010664</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.1958864734081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157541</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978505</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279962</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783465</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384835</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3079795468357</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357247</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517126</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213935</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696407</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642617</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141166</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145781</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239365</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3538315015018</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449072</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7501939217679</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.447363990222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600321</v>
+        <v>31.24391673888118</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289173</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828554</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.050084024954</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149622</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010664</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.1958864734081</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157541</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978505</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>234.6765353964542</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783465</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>457.2391593806183</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>423.1370906044456</v>
       </c>
       <c r="D2" t="n">
-        <v>888.1669891643244</v>
+        <v>391.2677098192942</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>361.5333690179934</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>335.8479545308335</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>335.8479545308335</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331058</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331058</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331058</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>463.9715986331058</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1042.104373311972</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990838</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949433</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575529</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575529</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575529</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1710.967316986562</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1291.824853565873</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>883.5387298655261</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>446.4330838019849</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>88.45345215783733</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450739</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>975.472572779586</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>897.2138370509811</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>724.652125534206</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>558.7741327357287</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>389.0161289864659</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>212.3090749482221</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>133.2974851387397</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>408.0559397098752</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>826.2658214778363</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>958.26227748439</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1400.521080642035</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1820.190329867816</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2167.697223838158</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407862</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407862</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407862</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2120.825793665726</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1833.870285536156</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>1561.843881122448</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1316.45212645586</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1089.032455769968</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1340.268492507381</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>1306.166423731208</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>1274.297042946057</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>840.5222981043516</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>412.6548685135594</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>840.941925548546</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>675.0639327500687</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>505.305929000806</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>328.5988749625621</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.8102096861769</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.204642120565</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>988.0621786998757</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1436.523933066314</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1158.090932319419</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>871.1354241898498</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>871.1354241898498</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>625.7436695232623</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1860.125842410799</v>
+        <v>2078.516374329479</v>
       </c>
       <c r="C11" t="n">
-        <v>1421.983369594222</v>
+        <v>1640.373901512902</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.355395212625</v>
+        <v>1204.464116687347</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.355395212625</v>
+        <v>770.6893718456417</v>
       </c>
       <c r="F11" t="n">
-        <v>770.4879656218329</v>
+        <v>770.6893718456417</v>
       </c>
       <c r="G11" t="n">
-        <v>369.0901342450968</v>
+        <v>369.2915404689056</v>
       </c>
       <c r="H11" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="J11" t="n">
-        <v>79.95997968831307</v>
+        <v>515.4160733650398</v>
       </c>
       <c r="K11" t="n">
-        <v>79.95997968831307</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95997968831307</v>
+        <v>1483.926903490738</v>
       </c>
       <c r="M11" t="n">
-        <v>1069.464728331187</v>
+        <v>1483.926903490738</v>
       </c>
       <c r="N11" t="n">
-        <v>2058.969476974061</v>
+        <v>1483.926903490738</v>
       </c>
       <c r="O11" t="n">
-        <v>3039.149143544368</v>
+        <v>2464.106570061044</v>
       </c>
       <c r="P11" t="n">
-        <v>3867.459018377764</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="Q11" t="n">
-        <v>3867.459018377764</v>
+        <v>3838.915230853035</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415653</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="S11" t="n">
-        <v>3997.998984415653</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="T11" t="n">
-        <v>3777.931757288692</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="U11" t="n">
-        <v>3518.709454605709</v>
+        <v>3665.195119106946</v>
       </c>
       <c r="V11" t="n">
-        <v>3518.709454605709</v>
+        <v>3332.244531935422</v>
       </c>
       <c r="W11" t="n">
-        <v>3113.854000016742</v>
+        <v>3332.244531935422</v>
       </c>
       <c r="X11" t="n">
-        <v>2694.711536596053</v>
+        <v>2913.102068514733</v>
       </c>
       <c r="Y11" t="n">
-        <v>2286.425412895706</v>
+        <v>2504.815944814387</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796059</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.6752635162482</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628014</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.4645599897551</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059167</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721006</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="I12" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="J12" t="n">
-        <v>404.5183046545254</v>
+        <v>404.7197108783342</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.251824724903</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.453230948712</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.288024440707</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.026963072782</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412684</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801483</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.435625759369</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4560167652443</v>
+        <v>789.655223329734</v>
       </c>
       <c r="C13" t="n">
-        <v>757.8943052484692</v>
+        <v>789.655223329734</v>
       </c>
       <c r="D13" t="n">
-        <v>592.0163124499919</v>
+        <v>623.7772305312567</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2583087007292</v>
+        <v>454.0192267819939</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5512546624854</v>
+        <v>385.6548351959196</v>
       </c>
       <c r="G13" t="n">
-        <v>79.95997968831307</v>
+        <v>220.0635602217473</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831307</v>
+        <v>80.16138591212184</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530029</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241385</v>
+        <v>441.4995256479473</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920996</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373013</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2678.380420548428</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.380420548428</v>
+        <v>2537.579627112918</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.500974126883</v>
+        <v>2291.700180691373</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.067973379988</v>
+        <v>2013.267179944478</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.112465250419</v>
+        <v>1726.311671814909</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.08606083671</v>
+        <v>1454.2852674012</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.694306170123</v>
+        <v>1208.893512734613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.274635484231</v>
+        <v>981.4738420487211</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722818</v>
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>476.1186811406515</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>299.4116271024077</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>133.8203521282353</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.264168181403</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.872413514815</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1249.452742828923</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,46 +5519,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1083.7810821021</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C19" t="n">
-        <v>911.219370585325</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D19" t="n">
-        <v>745.3413777868477</v>
+        <v>451.8971520785117</v>
       </c>
       <c r="E19" t="n">
-        <v>575.5833740375849</v>
+        <v>282.1391483292489</v>
       </c>
       <c r="F19" t="n">
-        <v>398.8763199993411</v>
+        <v>105.4320942910051</v>
       </c>
       <c r="G19" t="n">
-        <v>233.2850450251688</v>
+        <v>105.4320942910051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W19" t="n">
-        <v>1748.411126173567</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X19" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.599700821087</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="20">
@@ -5750,43 +5750,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.727725908489</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C22" t="n">
-        <v>843.1660143917136</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D22" t="n">
-        <v>677.2880215932363</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057297</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.384174393663</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.357769979955</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.966015313368</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.546344627476</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176949</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430054</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300484</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886776</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220188</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534297</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,64 +6206,64 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681876</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934735</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934735</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423629</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993936</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827332</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785927</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
         <v>406.885835245268</v>
@@ -6294,10 +6294,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
         <v>128.3245134312372</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6327,16 +6327,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
         <v>1196.412455590541</v>
@@ -6345,10 +6345,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238832</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130894</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.801834709349</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7072,13 +7072,13 @@
         <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2581.936540552484</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552484</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.11620712279</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956186</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.92486791478</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.078932667837</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843164</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707693</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.26853091484</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205983</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138143</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800267</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>452.7435767800267</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.7435767800267</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.7435767800267</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.7435767800267</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.7435767800267</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.3293907728374</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>778.2253242475525</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>612.8049764405653</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5046176827927</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>267.255208636039</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.149801674206</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015011</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256216</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.72817868494</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.050279615591</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2449.628478185536</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2171.653122430132</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.155259292052</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.586499869834</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.652390194736</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.690364500334</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038964</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552483</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122789</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956185</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914779</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.078932667836</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843163</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707692</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.268530914839</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205983</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138143</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800266</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.7435767800266</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>452.7435767800266</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>452.7435767800266</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.866728243428</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>852.7626617181436</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>687.3423139111563</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>518.0419551533837</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>341.79254610663</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>329.7684122053267</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.3238828871913</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.149801674206</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015011</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256216</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858439</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.728178684941</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2701.409315102293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2542.62559139178</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2297.203789961726</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2019.228434206321</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1732.730571068242</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1461.161811646023</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1216.227701970925</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.227701970925</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038964</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186504</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533567</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.936540552483</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.936540552483</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.116207122789</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956185</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914779</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.078932667836</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843163</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707692</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.510464016199</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.26853091484</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446495</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812918</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371442</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.1215786533567</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.1215786533567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.1215786533567</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>102.1215786533567</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>531.5340685718589</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1765.361340132166</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1765.361340132166</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.361340132166</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.361340132166</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0830039451919</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244126</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>832.4264565202811</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>660.3223899949961</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>494.9020421880089</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>494.9020421880089</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>494.9020421880089</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>329.7684122053267</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.3238828871913</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533567</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.149801674206</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015011</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256216</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762694</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776498</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858439</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.728178684941</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405432</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2701.409315102293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2542.62559139178</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2297.203789961726</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2019.228434206321</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1732.730571068242</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1495.683565617277</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.74945594218</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.787430247778</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>421.468483493996</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>77.34673934026</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>133.3297535419733</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>135.5156951187073</v>
       </c>
       <c r="M11" t="n">
-        <v>999.4997461039134</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>999.4997461039134</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>131.8585515534241</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949870315</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352469</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>136.515167914315</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.749989816669</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>210.1589923395188</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>29.36969926570379</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.259235827648</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.409952087436605e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>96.56253959275537</v>
+        <v>135.363611086506</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.14631452530448</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704884</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>223.1369608195775</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.6516710866781</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>23.65030257151125</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.14686572942388</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.592177662726</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.050084024954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149622</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010664</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.1498668014656</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>151.5784011205651</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701949</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4869149562861</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>34.17653643154196</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726512.8590277291</v>
+        <v>737975.64194423</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726512.8590277291</v>
+        <v>743972.9619084634</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>726512.8590277291</v>
+        <v>743972.9619084634</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640646.498417387</v>
+        <v>641776.9401016936</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>765815.5320330946</v>
+        <v>765815.5320330947</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>765815.5320330946</v>
+        <v>765815.5320330947</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765815.5320330947</v>
+        <v>765815.5320330946</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766050.0424757431</v>
+        <v>765815.5320330946</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766050.0424757431</v>
+        <v>765815.5320330946</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766050.042475743</v>
+        <v>765815.5320330946</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="C2" t="n">
-        <v>254669.9769479441</v>
+        <v>254669.976947944</v>
       </c>
       <c r="D2" t="n">
         <v>254669.9769479441</v>
       </c>
       <c r="E2" t="n">
-        <v>209353.9368866378</v>
+        <v>209723.3487504581</v>
       </c>
       <c r="F2" t="n">
         <v>250257.3524652424</v>
@@ -26347,13 +26347,13 @@
         <v>250257.3524652424</v>
       </c>
       <c r="N2" t="n">
-        <v>250380.4897531826</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>250380.4897531826</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="P2" t="n">
-        <v>250380.4897531825</v>
+        <v>250257.3524652424</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087936</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889393</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455765</v>
+        <v>99874.97317730823</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.2047406476</v>
+        <v>79150.85324460977</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449904</v>
+        <v>152792.9007051286</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773531</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506395</v>
+        <v>83359.2656380507</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465073</v>
+        <v>67659.41322128722</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>187011.9732966035</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>79370.99836319938</v>
+        <v>79511.05108384398</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>94878.44464875292</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875291</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.4446487528</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="N4" t="n">
-        <v>95237.61453644579</v>
-      </c>
-      <c r="O4" t="n">
-        <v>95237.61453644579</v>
-      </c>
-      <c r="P4" t="n">
-        <v>95237.61453644579</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027784</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311793</v>
+        <v>60922.6532932126</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="N5" t="n">
-        <v>77650.48879577281</v>
-      </c>
       <c r="O5" t="n">
-        <v>77650.48879577279</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77650.48879577279</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159039.2312862061</v>
+        <v>-197177.740337731</v>
       </c>
       <c r="C6" t="n">
-        <v>-16847.93062649618</v>
+        <v>-20422.28251915071</v>
       </c>
       <c r="D6" t="n">
-        <v>-16847.93062649623</v>
+        <v>6567.917119743317</v>
       </c>
       <c r="E6" t="n">
-        <v>-102529.8726852561</v>
+        <v>-30821.89000494611</v>
       </c>
       <c r="F6" t="n">
-        <v>-2211.535529950605</v>
+        <v>-1513.408373295465</v>
       </c>
       <c r="G6" t="n">
-        <v>77660.66921069701</v>
+        <v>77637.44487131436</v>
       </c>
       <c r="H6" t="n">
-        <v>77660.66921069706</v>
+        <v>77637.44487131436</v>
       </c>
       <c r="I6" t="n">
-        <v>77660.66921069703</v>
+        <v>77637.44487131434</v>
       </c>
       <c r="J6" t="n">
-        <v>-33353.79613429331</v>
+        <v>-75155.45583381424</v>
       </c>
       <c r="K6" t="n">
-        <v>77660.66921069709</v>
+        <v>56136.22547357901</v>
       </c>
       <c r="L6" t="n">
-        <v>77660.66921069697</v>
+        <v>77637.44487131431</v>
       </c>
       <c r="M6" t="n">
-        <v>-65682.44063994254</v>
+        <v>-5721.820766736365</v>
       </c>
       <c r="N6" t="n">
-        <v>9280.257216313272</v>
+        <v>9978.031650027138</v>
       </c>
       <c r="O6" t="n">
-        <v>77492.38642096402</v>
+        <v>77637.44487131439</v>
       </c>
       <c r="P6" t="n">
-        <v>77492.38642096396</v>
+        <v>77637.44487131431</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039134</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26811,7 +26811,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223441</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.203888583809</v>
+        <v>334.5021172936661</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808317</v>
+        <v>276.2431794832223</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201051</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223441</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.203888583809</v>
+        <v>334.5021172936658</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630456</v>
+        <v>276.2431794832225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223441</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.203888583809</v>
+        <v>334.5021172936661</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808317</v>
+        <v>276.2431794832223</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>106.3832346317402</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>398.160194952596</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,16 +27591,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>83.93875083471053</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.1117530257918</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.7227375978872</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.75255685807437</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>117.766182674437</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>339.3090795914215</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>196.5432550408247</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>143.0167049283501</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.397462167439386e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415751914</v>
+        <v>-2.895907565613612e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415751914</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>421.468483493996</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756227</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756225</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>77.34673934026</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>133.3297535419733</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>135.5156951187073</v>
       </c>
       <c r="M11" t="n">
-        <v>999.4997461039134</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>999.4997461039134</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>131.8585515534241</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949870315</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352469</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,13 +37543,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>136.515167914315</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065586</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496167</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928695</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>136.5151679143141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065587</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496167</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061339</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928698</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>136.5151679143141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.749989816669</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065587</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376718</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496167</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061339</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3614010928698</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
